--- a/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd_accepted.xlsx
+++ b/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd_accepted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,294 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.5v</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6v</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01831129196337701</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.008445705850044921</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04506828977679894</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.002757530800678</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.459844638217055</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.5v</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9v</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01512096774193527</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.01159416253387981</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.04183609801775034</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.483481626266732</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6850479383718692</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.5v</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002340354396522791</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.02435181491503168</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02903252370807726</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3847126055834243</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.5v</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01204819277108412</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.01464855186585174</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03874493740801997</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.980169017112511</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6v</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9v</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003190324221441741</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.01897452284434387</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02535517128722736</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.631551458984317</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6v</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01597093756685422</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.006166229423358961</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0381081045570674</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.165534357324425</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3826333963010845</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9v</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01278061334541248</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.009305930431713207</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03486715712253817</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.53899939006594</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6612326889893446</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01438854716760691</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.007675754420589386</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03645284875580319</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.861313345450331</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.522980241264126</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.007674603174601488</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.01435104926801739</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02970025561722036</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.528853274520744</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
